--- a/config_3.16/prop_clear_server.xlsx
+++ b/config_3.16/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -644,7 +644,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,12 +694,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -981,8 +975,8 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L51" sqref="L51"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1093,10 +1087,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="15">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="D6" s="15">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>79</v>
@@ -1140,16 +1134,16 @@
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="11">
         <v>1615248000</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="11">
         <v>1615823999</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1157,16 +1151,16 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="11">
         <v>1615248000</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="11">
         <v>1615823999</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1174,16 +1168,16 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="11">
         <v>1615248000</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="11">
         <v>1615823999</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1191,16 +1185,16 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="11">
         <v>1615248000</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="11">
         <v>1615823999</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1208,16 +1202,16 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="11">
         <v>1615248000</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="11">
         <v>1615823999</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1225,16 +1219,16 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="11">
         <v>1615248000</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="11">
         <v>1615823999</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1242,16 +1236,16 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="11">
         <v>1615248000</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="11">
         <v>1615823999</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1259,16 +1253,16 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="11">
         <v>1615248000</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="11">
         <v>1615823999</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1276,16 +1270,16 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="11">
         <v>1615248000</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="11">
         <v>1615823999</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="9" t="s">
         <v>37</v>
       </c>
     </row>

--- a/config_3.16/prop_clear_server.xlsx
+++ b/config_3.16/prop_clear_server.xlsx
@@ -335,10 +335,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>庆典礼包抽奖券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_hqjnh_csbox</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -505,6 +501,10 @@
   </si>
   <si>
     <t>通用礼包专用--稀有</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包抽奖券</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +644,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,6 +694,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -975,8 +981,8 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1093,7 +1099,7 @@
         <v>1616428799</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1593,17 +1599,17 @@
       <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="9">
-        <v>1609804800</v>
-      </c>
-      <c r="D36" s="9">
-        <v>1610380799</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>72</v>
+      <c r="C36" s="18">
+        <v>1615852800</v>
+      </c>
+      <c r="D36" s="18">
+        <v>1616428799</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -1611,7 +1617,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="11">
         <v>1610409600</v>
@@ -1620,7 +1626,7 @@
         <v>1610985599</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -1628,7 +1634,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="11">
         <v>1610409600</v>
@@ -1637,7 +1643,7 @@
         <v>1610985599</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -1645,7 +1651,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="11">
         <v>1610409600</v>
@@ -1654,7 +1660,7 @@
         <v>1610985599</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -1662,7 +1668,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" s="11">
         <v>1611014400</v>
@@ -1671,7 +1677,7 @@
         <v>1611590399</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -1679,7 +1685,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="11">
         <v>1611014400</v>
@@ -1688,7 +1694,7 @@
         <v>1611590399</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
@@ -1696,7 +1702,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42" s="11">
         <v>1611014400</v>
@@ -1705,7 +1711,7 @@
         <v>1611590399</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
@@ -1713,7 +1719,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C43" s="11">
         <v>1611014400</v>
@@ -1722,7 +1728,7 @@
         <v>1611590399</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -1730,7 +1736,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" s="11">
         <v>1612828800</v>
@@ -1739,7 +1745,7 @@
         <v>1613404799</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -1747,7 +1753,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C45" s="11">
         <v>1612828800</v>
@@ -1756,7 +1762,7 @@
         <v>1613404799</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -1764,7 +1770,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" s="11">
         <v>1612828800</v>
@@ -1773,7 +1779,7 @@
         <v>1613404799</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -1781,7 +1787,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C47" s="11">
         <v>1612828800</v>
@@ -1790,7 +1796,7 @@
         <v>1613404799</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -1798,7 +1804,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="11">
         <v>1612828800</v>
@@ -1807,7 +1813,7 @@
         <v>1613404799</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -1815,7 +1821,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" s="11">
         <v>1612828800</v>
@@ -1824,7 +1830,7 @@
         <v>1613404799</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -1832,7 +1838,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C50" s="11">
         <v>1612828800</v>
@@ -1841,7 +1847,7 @@
         <v>1613404799</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
@@ -1849,7 +1855,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" s="11">
         <v>1612828800</v>
@@ -1858,7 +1864,7 @@
         <v>1613404799</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
@@ -1866,7 +1872,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="11">
         <v>1614038400</v>
@@ -1875,7 +1881,7 @@
         <v>1614614399</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
@@ -1883,7 +1889,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C53" s="11">
         <v>1614643200</v>
@@ -1892,7 +1898,7 @@
         <v>1615219199</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
@@ -1900,7 +1906,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C54" s="11">
         <v>1614643200</v>
@@ -1909,7 +1915,7 @@
         <v>1615219199</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
@@ -1917,7 +1923,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C55" s="11">
         <v>1614643200</v>
@@ -1926,7 +1932,7 @@
         <v>1615219199</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
